--- a/data/case1/14/Qlm2_13.xlsx
+++ b/data/case1/14/Qlm2_13.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.5703125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.092138941749958292</v>
+        <v>-0.095493383854034164</v>
       </c>
       <c r="B1" s="0">
-        <v>0.092087888279763774</v>
+        <v>0.095441033559694688</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.069984363043601228</v>
+        <v>-0.073336552294362534</v>
       </c>
       <c r="B2" s="0">
-        <v>0.069856041117034806</v>
+        <v>0.073205318536783359</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.049690890488927053</v>
+        <v>-0.023502122991105878</v>
       </c>
       <c r="B3" s="0">
-        <v>0.049578973927660641</v>
+        <v>0.023469383855728054</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.041578973988119827</v>
+        <v>-0.015469383902997791</v>
       </c>
       <c r="B4" s="0">
-        <v>0.041077234316290401</v>
+        <v>0.014790427645623438</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.038077234345131217</v>
+        <v>-0.011790427666843684</v>
       </c>
       <c r="B5" s="0">
-        <v>0.036361161518916774</v>
+        <v>0.0094424824106278393</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0051270188746102008</v>
+        <v>-0.052671755124517716</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0046855326496757499</v>
+        <v>0.052078346472107739</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0053144672699039219</v>
+        <v>-0.042078346533521938</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.005424118452443949</v>
+        <v>0.041928763784834455</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.015424118372413975</v>
+        <v>-0.031928763848966035</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.015636151827896683</v>
+        <v>0.031647543714333093</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.017636151803523958</v>
+        <v>-0.029647543739519833</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0178156579231743</v>
+        <v>0.029411294339610983</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0031097559554478238</v>
+        <v>-0.027411294368564043</v>
       </c>
       <c r="B10" s="0">
-        <v>0.0031004730976302852</v>
+        <v>0.027395593536082785</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.00010047312651195739</v>
+        <v>-0.024395593570852192</v>
       </c>
       <c r="B11" s="0">
-        <v>8.3954918940420953e-05</v>
+        <v>0.024369021303018989</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0034160450487941141</v>
+        <v>-0.020869021341222371</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0035397183164698198</v>
+        <v>0.020672596189982961</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0070397182848269679</v>
+        <v>-0.017172596231951331</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.0070961872323813679</v>
+        <v>0.01708316511825192</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.015096187170937192</v>
+        <v>-0.0090831651854044182</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.015120286340384759</v>
+        <v>0.0090539707435768335</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.016120286327017119</v>
+        <v>-0.008053970773790553</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.016138384171181741</v>
+        <v>0.0080351190271894524</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.018138384152513787</v>
+        <v>-0.0060351190633851637</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.018187570849675261</v>
+        <v>0.0060035515422800501</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.020187570833977375</v>
+        <v>-0.0040035515794105692</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.020203305218752909</v>
+        <v>0.0039999999519269025</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.01610352527720238</v>
+        <v>-0.01610448129811104</v>
       </c>
       <c r="B18" s="0">
-        <v>0.016091073676680168</v>
+        <v>0.016091341531495829</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012091073704381561</v>
+        <v>-0.012091341553689627</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012016365785432193</v>
+        <v>0.012016650151823072</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080163658152265782</v>
+        <v>-0.0080166501758824893</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080055719288374405</v>
+        <v>0.0080056598992150896</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040055719589560113</v>
+        <v>-0.004005659923537408</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999696140875</v>
+        <v>0.0039999999754920523</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.016165150659768202</v>
+        <v>-0.045703195570753863</v>
       </c>
       <c r="B22" s="0">
-        <v>0.015817028407367317</v>
+        <v>0.04549254939704106</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.010817028446647114</v>
+        <v>-0.04049254942931757</v>
       </c>
       <c r="B23" s="0">
-        <v>0.010123951082777971</v>
+        <v>0.040097727355276724</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020097949321418618</v>
+        <v>-0.02009772747167915</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999856517903</v>
+        <v>0.019999999881900266</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.029234142670715002</v>
+        <v>-0.011034051450462101</v>
       </c>
       <c r="B25" s="0">
-        <v>0.029188722511104714</v>
+        <v>0.010994386747578133</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.026688722541409859</v>
+        <v>-0.0084943867677207407</v>
       </c>
       <c r="B26" s="0">
-        <v>0.026633389413035502</v>
+        <v>0.0084464523800100721</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.024133389444140008</v>
+        <v>-0.005946452400388047</v>
       </c>
       <c r="B27" s="0">
-        <v>0.023824445766451596</v>
+        <v>0.0056813821155974331</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.021824445797517633</v>
+        <v>-0.0036813821342454034</v>
       </c>
       <c r="B28" s="0">
-        <v>0.021632454184197236</v>
+        <v>0.0035181843837710502</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.014632454251104043</v>
+        <v>0.0034818155703426612</v>
       </c>
       <c r="B29" s="0">
-        <v>0.014589177222614325</v>
+        <v>-0.0035195686307538665</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021165107386912574</v>
+        <v>0.0035001432508638963</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021022032290761494</v>
+        <v>-0.0035928332166994537</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014022032361220127</v>
+        <v>-0.014022550177035242</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014000985254295273</v>
+        <v>0.014001239799087628</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040009853453870647</v>
+        <v>-0.0040012398610294042</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999490945015</v>
+        <v>0.0039999999701443301</v>
       </c>
     </row>
   </sheetData>
